--- a/va_facility_data_2025-02-20/Castle Point VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Castle%20Point%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Castle Point VA Medical Center - Facility Data.xlsx"; filename*=UTF-8''Castle%20Point%20VA%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R9f8066d14bab459c8f5eb24e43269f55"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R173c1859fe7e43b29c0ee735905432e9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R109358205b9d424d9eab5d34c8f501a7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2bf345465a384652ac665ed1eb4faed9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd40a58ec11544fcfbd6eebf3ee60ad3a"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re1b73e6125534f75935059027837fc6b"/>
   </x:sheets>
 </x:workbook>
 </file>
